--- a/backend/data/synthetic/tax_payments.xlsx
+++ b/backend/data/synthetic/tax_payments.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PAY03A8B8EB</t>
+          <t>PAY31F5C6BB</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -498,7 +498,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PAY03B0D95F</t>
+          <t>PAY418F7842</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PAYB418A744</t>
+          <t>PAYF64E519F</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PAYDD5FC8CF</t>
+          <t>PAYC0805C7B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PAY12CD92AE</t>
+          <t>PAY31C994D7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PAY830A59F1</t>
+          <t>PAYA271F21A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PAY406099C0</t>
+          <t>PAY65C2DA42</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -678,7 +678,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PAY665C0A38</t>
+          <t>PAYF147FED1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PAY83F5F17A</t>
+          <t>PAY3EDC62C4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -738,7 +738,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PAYDFF16CAF</t>
+          <t>PAY0753339B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PAY729EE40A</t>
+          <t>PAYC2988104</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PAYC86ABBD7</t>
+          <t>PAY058E3389</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PAY2D0DE840</t>
+          <t>PAYC14714F7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -858,7 +858,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PAYA5A0E3F7</t>
+          <t>PAY9AD4C4C7</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PAYC1DADB3B</t>
+          <t>PAYEB359F50</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -918,7 +918,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PAYB41A08E8</t>
+          <t>PAY18113F7D</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -948,7 +948,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PAYAF3BDE5A</t>
+          <t>PAYA9360529</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -978,7 +978,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PAYE593EC2D</t>
+          <t>PAY0AD7D2FA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PAY36B829DA</t>
+          <t>PAYDF38A650</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PAYAD2CD7A2</t>
+          <t>PAYDC17523D</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1068,7 +1068,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PAY40EE725B</t>
+          <t>PAY52CECD71</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PAY021B5EC7</t>
+          <t>PAYDEBD214A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1128,7 +1128,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PAYF2752F52</t>
+          <t>PAY39F8FB60</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1158,7 +1158,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PAY33417E0E</t>
+          <t>PAY7DAEB3BE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1188,7 +1188,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PAY1E556C45</t>
+          <t>PAYDD8BB0DD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1218,7 +1218,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PAY8837D6F6</t>
+          <t>PAY0A399CC5</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1248,7 +1248,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PAY1C479B3E</t>
+          <t>PAY548E68E8</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1278,7 +1278,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PAY5DECA404</t>
+          <t>PAY7C16C19E</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1308,7 +1308,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PAY2B06A002</t>
+          <t>PAYD2C29BB6</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1338,7 +1338,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PAY168A4DD0</t>
+          <t>PAY859E9C9F</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PAY9CCA1E5E</t>
+          <t>PAY8B6EFD19</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1398,7 +1398,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PAYDB447C12</t>
+          <t>PAY00536CDD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PAY10502B8B</t>
+          <t>PAY9CED8223</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1458,7 +1458,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PAYE4FF2D2A</t>
+          <t>PAY130384CE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1488,7 +1488,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PAYDC83E448</t>
+          <t>PAYBDFD264C</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1518,7 +1518,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAYA51C13E9</t>
+          <t>PAYA1AD1F96</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1548,7 +1548,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PAY3BB6A93D</t>
+          <t>PAY804D0535</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1578,7 +1578,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAY462E7835</t>
+          <t>PAY4376EE21</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1608,7 +1608,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PAY36B6C055</t>
+          <t>PAYFFE12DEE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PAY0890F5AA</t>
+          <t>PAYC48E5638</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PAY6339E2A9</t>
+          <t>PAYFA15388F</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1698,7 +1698,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PAYAF6E7FEB</t>
+          <t>PAY9E313304</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1728,7 +1728,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PAY821684CC</t>
+          <t>PAY5A09C97B</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1758,7 +1758,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PAYC8E1DC8A</t>
+          <t>PAYD992370E</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1788,7 +1788,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PAY8010CCD6</t>
+          <t>PAYDCC1B970</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1818,7 +1818,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PAY96ED21B5</t>
+          <t>PAYB2ECAE66</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1848,7 +1848,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PAY951CC183</t>
+          <t>PAY94352C8F</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1878,7 +1878,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PAYD806E212</t>
+          <t>PAYE2EC6854</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PAYF827A897</t>
+          <t>PAY051EF33F</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1938,7 +1938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PAY0B3285B8</t>
+          <t>PAYFF6FFC98</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1968,7 +1968,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PAYEAE229B7</t>
+          <t>PAYB137875B</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1998,7 +1998,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PAYF2742E4D</t>
+          <t>PAY54198F3A</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2028,7 +2028,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PAY35E1EEAD</t>
+          <t>PAY43B29987</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2058,7 +2058,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PAY713B08A1</t>
+          <t>PAYABB40C41</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2088,7 +2088,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PAYBE2F26AA</t>
+          <t>PAY0F9FC53D</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2118,7 +2118,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PAY128927BB</t>
+          <t>PAY3B6B1008</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2148,7 +2148,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PAY7451DFF6</t>
+          <t>PAY6ABA67FC</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2178,7 +2178,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PAY2AF5F473</t>
+          <t>PAYB7DF0AD9</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2208,7 +2208,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PAY4128A2DD</t>
+          <t>PAYD46410D0</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2238,7 +2238,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PAYD198E38B</t>
+          <t>PAYE0B451D4</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2268,7 +2268,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PAY25BE42DB</t>
+          <t>PAY39CD28D1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2298,7 +2298,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PAYABA9374F</t>
+          <t>PAY17B6D53B</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2328,7 +2328,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PAYFDD98DD1</t>
+          <t>PAY91D4EC6C</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2358,7 +2358,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PAY5C5D1EE6</t>
+          <t>PAY2E74B4C0</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2388,7 +2388,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PAYF9E7EAF1</t>
+          <t>PAY489A0D5B</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2418,7 +2418,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PAY02114F93</t>
+          <t>PAY8639090C</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2448,7 +2448,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PAY081E6DF6</t>
+          <t>PAYF9BC1405</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2478,7 +2478,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PAY63C7AE86</t>
+          <t>PAYEA6C7013</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2508,7 +2508,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PAY0B3107E1</t>
+          <t>PAY8A5D611C</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2538,7 +2538,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PAYBBA8489D</t>
+          <t>PAYBB59EC8C</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2568,7 +2568,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PAY342F99AB</t>
+          <t>PAYF092C6DF</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2598,7 +2598,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PAYBC0F7762</t>
+          <t>PAY7A2E1571</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2628,7 +2628,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PAYC3B6D2F8</t>
+          <t>PAY245318BD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2658,7 +2658,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PAY602AB20E</t>
+          <t>PAY672B91C2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2688,7 +2688,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PAYEFFAF3CC</t>
+          <t>PAYE32022FB</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2718,7 +2718,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PAY4BB0495F</t>
+          <t>PAYCA329B7F</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2748,7 +2748,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PAYDB6275D8</t>
+          <t>PAY1121D59A</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2778,7 +2778,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PAYBC7EB809</t>
+          <t>PAYD6CC8647</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2808,7 +2808,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PAY9AB62F10</t>
+          <t>PAY3C641919</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2838,7 +2838,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PAY36503D9A</t>
+          <t>PAY3375B291</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2868,7 +2868,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PAYD2AA6118</t>
+          <t>PAY16E69662</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2898,7 +2898,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PAYA02490A3</t>
+          <t>PAY2278B2B3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PAY2ADAA40E</t>
+          <t>PAYC414902D</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2958,7 +2958,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PAYAC2D6EF5</t>
+          <t>PAY46EBF25E</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2988,7 +2988,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PAY3F012699</t>
+          <t>PAY014B512A</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3018,7 +3018,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PAY1A562B09</t>
+          <t>PAY9A9F5D6D</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3048,7 +3048,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PAY7FA94E4E</t>
+          <t>PAY9B005484</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3078,7 +3078,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PAY4E870B85</t>
+          <t>PAY1E6796F4</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3108,7 +3108,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PAY9DF04DA4</t>
+          <t>PAYC93E0F26</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3138,7 +3138,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PAY8D050A8B</t>
+          <t>PAY1BFB5C09</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3168,7 +3168,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PAY42E21F6B</t>
+          <t>PAY4BFC7128</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3198,7 +3198,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PAY00B42F71</t>
+          <t>PAY7B2D146C</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3228,7 +3228,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PAY5E0B8DCB</t>
+          <t>PAY6274B391</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3258,7 +3258,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PAY39425F0B</t>
+          <t>PAYE0DC9DAA</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3288,7 +3288,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PAY1E3FB2C9</t>
+          <t>PAYC8D89FDC</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3318,7 +3318,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PAY4A010C91</t>
+          <t>PAY547586C9</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3348,7 +3348,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PAY7FEC8B04</t>
+          <t>PAYEAA1A7EA</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3378,7 +3378,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PAY889F54E4</t>
+          <t>PAY9BD5E633</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3408,7 +3408,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PAY419D7FB9</t>
+          <t>PAY646FF52A</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3438,7 +3438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PAYB201F3C9</t>
+          <t>PAYB7F59EC0</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3468,7 +3468,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PAY2153F286</t>
+          <t>PAY888AFF54</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3498,7 +3498,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>PAYD2755607</t>
+          <t>PAY9B7727B4</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3528,7 +3528,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>PAY1FD426EB</t>
+          <t>PAYFB32B569</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3558,7 +3558,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>PAYB0B37DC8</t>
+          <t>PAY600FAC7C</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3588,7 +3588,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PAYD55A1D23</t>
+          <t>PAY0983A179</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3618,7 +3618,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>PAYC0EF9FAD</t>
+          <t>PAY36F32F07</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3648,7 +3648,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>PAY1D757E42</t>
+          <t>PAYF6CA6A3E</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3678,7 +3678,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>PAY2EBE72C0</t>
+          <t>PAYF2975F35</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3708,7 +3708,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>PAY87745D25</t>
+          <t>PAY6933A2AF</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3738,7 +3738,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PAY614995EA</t>
+          <t>PAY35331E86</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3768,7 +3768,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PAY72AA20BD</t>
+          <t>PAYD13FF7F9</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3798,7 +3798,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PAY62241C02</t>
+          <t>PAYFC06E3EA</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3828,7 +3828,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>PAY2DFFE8F7</t>
+          <t>PAY1EACECD2</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3858,7 +3858,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PAYB6FD5CA7</t>
+          <t>PAY644C3631</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3888,7 +3888,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>PAYE0B704AE</t>
+          <t>PAY1231AEC5</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3918,7 +3918,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>PAY4C8D5C2C</t>
+          <t>PAYD7853B67</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3948,7 +3948,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>PAY16050EE3</t>
+          <t>PAY333B542B</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3978,7 +3978,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>PAY33EF2809</t>
+          <t>PAYC539950A</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4008,7 +4008,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PAYA9EAB294</t>
+          <t>PAY77788F76</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4038,7 +4038,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>PAYC12CB764</t>
+          <t>PAY063FF8F1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4068,7 +4068,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PAY70694EE4</t>
+          <t>PAY44DCA5C4</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4098,7 +4098,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>PAY13D6A0AE</t>
+          <t>PAY3ED174BA</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4128,7 +4128,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>PAYDF9A6731</t>
+          <t>PAY04913EAB</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4158,7 +4158,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>PAYE8D0E310</t>
+          <t>PAY52762535</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4188,7 +4188,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>PAYDF88C446</t>
+          <t>PAY54C599F5</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4218,7 +4218,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PAY58C531CB</t>
+          <t>PAYA7669A90</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4248,7 +4248,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PAY4E984B98</t>
+          <t>PAYA2233404</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4278,7 +4278,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PAY28B69BBC</t>
+          <t>PAY9C1B0390</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4308,7 +4308,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PAYD3E7F01C</t>
+          <t>PAY53286B38</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4338,7 +4338,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PAY0847CC91</t>
+          <t>PAY555BB008</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4368,7 +4368,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PAYA02B839D</t>
+          <t>PAY26C074D7</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4398,7 +4398,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PAY7F0D692C</t>
+          <t>PAYEF2A6B1B</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4428,7 +4428,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PAY5D82BE27</t>
+          <t>PAY0208B75F</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4458,7 +4458,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PAYD84537A0</t>
+          <t>PAYE1E41FC5</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4488,7 +4488,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>PAY1DD4C24F</t>
+          <t>PAY1E7F1206</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4518,7 +4518,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PAY5245E363</t>
+          <t>PAY4EBEA434</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4548,7 +4548,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PAY4E658959</t>
+          <t>PAYC346B081</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4578,7 +4578,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PAY55797AC9</t>
+          <t>PAY1AD6286A</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4608,7 +4608,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PAYD7671043</t>
+          <t>PAY2DC0F188</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4638,7 +4638,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PAY080F2D88</t>
+          <t>PAY9ED810E3</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4668,7 +4668,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PAY6362D606</t>
+          <t>PAY3FF21238</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4698,7 +4698,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PAYEAD252EE</t>
+          <t>PAY1027E23A</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4728,7 +4728,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>PAY107F20FE</t>
+          <t>PAY8066B0DD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4758,7 +4758,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PAYFF2DCB25</t>
+          <t>PAYBB7D7098</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4788,7 +4788,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PAYB531486C</t>
+          <t>PAY18A5CB28</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4818,7 +4818,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PAY276FE100</t>
+          <t>PAY983A7ED9</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4848,7 +4848,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>PAYAAD8A9AC</t>
+          <t>PAYB9F97E76</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4878,7 +4878,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>PAY9D2136A8</t>
+          <t>PAY3E4445B8</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4908,7 +4908,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PAY78315275</t>
+          <t>PAY087EDDDB</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4938,7 +4938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PAY2FF3D99A</t>
+          <t>PAY9511E35B</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4968,7 +4968,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PAYACA05F72</t>
+          <t>PAYE3A10111</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4998,7 +4998,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PAY7BA80FE0</t>
+          <t>PAY71612CBC</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5028,7 +5028,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PAY54167FC6</t>
+          <t>PAY0B3628E9</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5058,7 +5058,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PAY16E56E33</t>
+          <t>PAY64654A1B</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5088,7 +5088,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PAY5694EF58</t>
+          <t>PAY84C7EE32</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5118,7 +5118,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PAY188E680C</t>
+          <t>PAYC2C0FD8B</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5148,7 +5148,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PAY5B35B402</t>
+          <t>PAYA2B652AA</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5178,7 +5178,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PAYB7CB1836</t>
+          <t>PAY0BB76043</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5208,7 +5208,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PAY985AB409</t>
+          <t>PAY42660D67</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5238,7 +5238,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PAY4FB78107</t>
+          <t>PAY68ED1447</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5268,7 +5268,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PAYD985F7ED</t>
+          <t>PAYB084C8B0</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5298,7 +5298,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PAYEBB201B7</t>
+          <t>PAYA448A10D</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5328,7 +5328,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>PAYB7CB044B</t>
+          <t>PAYC6B1D147</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5358,7 +5358,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PAY5513E165</t>
+          <t>PAY8A050058</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5388,7 +5388,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PAY14C98837</t>
+          <t>PAY7B5E7F0A</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5418,7 +5418,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PAYA9F75FB8</t>
+          <t>PAY6809A348</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5448,7 +5448,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PAYF6F8AEB6</t>
+          <t>PAY3994B353</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5478,7 +5478,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>PAY0DD16D48</t>
+          <t>PAY3CEC20E3</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5508,7 +5508,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PAY73460F09</t>
+          <t>PAY754BB3F0</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5538,7 +5538,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>PAY6446A7CB</t>
+          <t>PAYB3B38766</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5568,7 +5568,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PAY83BA5726</t>
+          <t>PAYA48173CB</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5598,7 +5598,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>PAYEE7AC695</t>
+          <t>PAY3BEEAA44</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5628,7 +5628,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>PAY23DFDDA4</t>
+          <t>PAY14E98E83</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5658,7 +5658,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PAY5F3DD22B</t>
+          <t>PAYC8D21752</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5688,7 +5688,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PAYCDD5A0A2</t>
+          <t>PAY143B9A68</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5718,7 +5718,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>PAYDA5E11EA</t>
+          <t>PAY9863B98E</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5748,7 +5748,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PAY483290FF</t>
+          <t>PAY4F8750F6</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5778,7 +5778,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PAYA13314BD</t>
+          <t>PAY17640301</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5808,7 +5808,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PAY7D73DEA9</t>
+          <t>PAYC6C04594</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5838,7 +5838,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>PAYE986AA3C</t>
+          <t>PAYDDC96F61</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5868,7 +5868,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>PAY984F0322</t>
+          <t>PAYFADBD5B3</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5898,7 +5898,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PAY3FF316EC</t>
+          <t>PAY2A28EDE1</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5928,7 +5928,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PAY271C1167</t>
+          <t>PAYA22E9CB4</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5958,7 +5958,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PAYC82C5B19</t>
+          <t>PAY6FF055D9</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5988,7 +5988,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>PAY54B2FCA4</t>
+          <t>PAYFBC523E7</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6018,7 +6018,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>PAY7B991E47</t>
+          <t>PAY3A6624B6</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6048,7 +6048,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>PAYD52D3250</t>
+          <t>PAYE4EAA263</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6078,7 +6078,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PAYFD0F0A5E</t>
+          <t>PAYCA127CC7</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6108,7 +6108,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PAY2D1FF451</t>
+          <t>PAY4AB54403</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6138,7 +6138,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PAY45C2699D</t>
+          <t>PAY80D02996</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6168,7 +6168,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>PAYDF2D5900</t>
+          <t>PAY9EB84E82</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6198,7 +6198,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>PAYAAA6EF78</t>
+          <t>PAY7EF15669</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6228,7 +6228,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>PAY132AEDF6</t>
+          <t>PAYB63E5444</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6258,7 +6258,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>PAY59B08BF4</t>
+          <t>PAY2C969615</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6288,7 +6288,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>PAY6F5860F9</t>
+          <t>PAY01634F2F</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6318,7 +6318,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>PAYF9FC7195</t>
+          <t>PAY1CDE164E</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6348,7 +6348,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>PAYBB81A28D</t>
+          <t>PAY39C7122C</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6378,7 +6378,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>PAY4111D252</t>
+          <t>PAY8D1C563C</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6408,7 +6408,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>PAY8A7FC925</t>
+          <t>PAYADA61C46</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6438,7 +6438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>PAY0E93ECD5</t>
+          <t>PAY4B55DE3E</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6468,7 +6468,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>PAY7D974AB3</t>
+          <t>PAYB03E12C6</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -6498,7 +6498,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>PAY5792E67E</t>
+          <t>PAY4E18F03B</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -6528,7 +6528,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>PAYA578486D</t>
+          <t>PAY91489507</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6558,7 +6558,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>PAY86B9259D</t>
+          <t>PAY1F6DF16E</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -6588,7 +6588,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>PAY7A221629</t>
+          <t>PAYB095CD63</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -6618,7 +6618,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>PAY984FEF2B</t>
+          <t>PAYB5D26FAC</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -6648,7 +6648,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>PAYE92F70A3</t>
+          <t>PAY8F63FBFE</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -6678,7 +6678,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>PAY619F6DCA</t>
+          <t>PAY193304E5</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -6708,7 +6708,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>PAYBCB60D9D</t>
+          <t>PAY7948C424</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6738,7 +6738,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>PAY7C8ED34D</t>
+          <t>PAYE25E8924</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -6768,7 +6768,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>PAY8723AFE9</t>
+          <t>PAY45864395</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -6798,7 +6798,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>PAYDECF8B22</t>
+          <t>PAY118E2F59</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -6828,7 +6828,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>PAYC2DFB489</t>
+          <t>PAY59B4EDF8</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -6858,7 +6858,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>PAY74FF38AA</t>
+          <t>PAY15EE2FBA</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -6888,7 +6888,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>PAYBA316EAF</t>
+          <t>PAY0B3F25DB</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -6918,7 +6918,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>PAYC982D2BB</t>
+          <t>PAYFC021E7B</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -6948,7 +6948,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>PAYDD05BACA</t>
+          <t>PAYA8453BBF</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -6978,7 +6978,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>PAY0203B9E2</t>
+          <t>PAY66DA74BE</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -7008,7 +7008,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>PAY6E388A75</t>
+          <t>PAY67BD6706</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -7038,7 +7038,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>PAY09E3647D</t>
+          <t>PAY6D61B60C</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -7068,7 +7068,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>PAYD5F149D0</t>
+          <t>PAYD3653AA3</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -7098,7 +7098,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>PAY37C56435</t>
+          <t>PAY97CCD90B</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -7128,7 +7128,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>PAY68792AC9</t>
+          <t>PAYF195611F</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -7158,7 +7158,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>PAYAE6E9C0F</t>
+          <t>PAY158E39A1</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -7188,7 +7188,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>PAYFD13334B</t>
+          <t>PAY10F7D20A</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -7218,7 +7218,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>PAY29AA54EE</t>
+          <t>PAY11D91F70</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -7248,7 +7248,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>PAY39A422C7</t>
+          <t>PAY23C2495E</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -7278,7 +7278,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>PAY5665D37A</t>
+          <t>PAYFF5A939E</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -7308,7 +7308,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>PAY46AA19D0</t>
+          <t>PAY8E4B7712</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -7338,7 +7338,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>PAYFAF9D2DC</t>
+          <t>PAY78BBD104</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -7368,7 +7368,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>PAY152C3FCB</t>
+          <t>PAY9722676D</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -7398,7 +7398,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>PAY3B32AE5F</t>
+          <t>PAYB02AE1E6</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -7428,7 +7428,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>PAY891A2469</t>
+          <t>PAYA0C0D2DC</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -7458,7 +7458,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>PAY9520DCE5</t>
+          <t>PAY0806F7DC</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7488,7 +7488,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>PAY53F374B7</t>
+          <t>PAY1993B614</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7518,7 +7518,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>PAY1284A32C</t>
+          <t>PAY575686E9</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -7548,7 +7548,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>PAY58808B71</t>
+          <t>PAYFB85A403</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -7578,7 +7578,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>PAY688DDC4A</t>
+          <t>PAYAB270367</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -7608,7 +7608,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>PAYAF9C6B64</t>
+          <t>PAYDDA62D20</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -7638,7 +7638,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>PAYDC903B5D</t>
+          <t>PAY87AA226F</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -7668,7 +7668,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>PAYCEB75F24</t>
+          <t>PAY2AC5F3B5</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -7698,7 +7698,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>PAY90B30BFA</t>
+          <t>PAY85ACB2A8</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -7728,7 +7728,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>PAY5A160D3E</t>
+          <t>PAYC7202EF9</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -7758,7 +7758,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>PAY1CA78D32</t>
+          <t>PAY68E83CBF</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -7788,7 +7788,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>PAYB6ECE1CE</t>
+          <t>PAY40522A08</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -7818,7 +7818,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>PAY8F6DCF7E</t>
+          <t>PAY5D7967C9</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -7848,7 +7848,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>PAYFEDFB9E6</t>
+          <t>PAY92FCB4E2</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -7878,7 +7878,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>PAYFF91589E</t>
+          <t>PAY86AE0F0B</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -7908,7 +7908,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>PAY426D90BC</t>
+          <t>PAY3B5DB729</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -7938,7 +7938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>PAY953E5481</t>
+          <t>PAYC6F15225</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -7968,7 +7968,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>PAY0DE5D87E</t>
+          <t>PAY27BC5734</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -7998,7 +7998,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>PAYE88B203E</t>
+          <t>PAY2BB8BD8E</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -8028,7 +8028,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>PAYE5E1F4C3</t>
+          <t>PAYF12C368C</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -8058,7 +8058,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>PAYAF84E381</t>
+          <t>PAY410007DA</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -8088,7 +8088,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>PAY969FB80E</t>
+          <t>PAY80042F19</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -8118,7 +8118,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>PAYB113193B</t>
+          <t>PAY4C1D4528</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -8148,7 +8148,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>PAY0AEA7590</t>
+          <t>PAYABD5064B</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -8178,7 +8178,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>PAYD76F8C06</t>
+          <t>PAY6ACF1833</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -8208,7 +8208,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>PAY2B58D345</t>
+          <t>PAY7A479403</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -8238,7 +8238,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>PAY5D3C050F</t>
+          <t>PAYBD71FCC1</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -8268,7 +8268,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>PAYFDAC3681</t>
+          <t>PAYB7BBE7EE</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -8298,7 +8298,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>PAY66761211</t>
+          <t>PAY4C933AF7</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -8328,7 +8328,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>PAY262B756A</t>
+          <t>PAYC2232362</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -8358,7 +8358,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>PAY4CE3885C</t>
+          <t>PAY91B7F2E9</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -8388,7 +8388,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>PAYDBFDF36A</t>
+          <t>PAY1416A0D2</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -8418,7 +8418,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>PAYA3A48437</t>
+          <t>PAY2D969A6E</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -8448,7 +8448,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>PAY79CA4C77</t>
+          <t>PAYE9D0763E</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -8478,7 +8478,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>PAY4C24BDDD</t>
+          <t>PAY254D58C3</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -8508,7 +8508,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>PAY0E269D84</t>
+          <t>PAY1F6A6CDC</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -8538,7 +8538,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>PAY5E7EF990</t>
+          <t>PAY06FE5420</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -8568,7 +8568,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>PAYAAE81595</t>
+          <t>PAY72C5B855</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -8598,7 +8598,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>PAY79970D3B</t>
+          <t>PAY3678E941</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -8628,7 +8628,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>PAY8CF13785</t>
+          <t>PAY6AB82F0A</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -8658,7 +8658,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>PAYCCE2C56C</t>
+          <t>PAYA20423D5</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -8688,7 +8688,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>PAYFFB18A87</t>
+          <t>PAYB831A4B3</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -8718,7 +8718,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>PAY24B33F05</t>
+          <t>PAY6C08BAE9</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -8748,7 +8748,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>PAYA8CD55EF</t>
+          <t>PAY4B8151A0</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -8778,7 +8778,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>PAY39AEF6FE</t>
+          <t>PAYE2C87301</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -8808,7 +8808,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>PAY64CAEBE2</t>
+          <t>PAY2DAECF46</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -8838,7 +8838,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>PAY19D189E0</t>
+          <t>PAY8FB6EC12</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -8868,7 +8868,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>PAYEB235FAD</t>
+          <t>PAY30A0707B</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -8898,7 +8898,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>PAY3FFEB4AE</t>
+          <t>PAYA8A56D0B</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -8928,7 +8928,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>PAYEA61DF60</t>
+          <t>PAY721EAFE7</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -8958,7 +8958,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>PAY78B831F6</t>
+          <t>PAYE723AA85</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -8988,7 +8988,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>PAY10CB5283</t>
+          <t>PAY6788E4E4</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -9018,7 +9018,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>PAY7E444EE1</t>
+          <t>PAY4EE4C9D0</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -9048,7 +9048,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>PAY4462C942</t>
+          <t>PAY008CC26A</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -9078,7 +9078,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>PAY7F2839C2</t>
+          <t>PAYFC9B1E2F</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -9108,7 +9108,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>PAY0D480844</t>
+          <t>PAY669B79D1</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -9138,7 +9138,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>PAY0442B07E</t>
+          <t>PAYB3C231D7</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -9168,7 +9168,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>PAY9312BE13</t>
+          <t>PAY0CC9A67A</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -9198,7 +9198,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>PAYA9CEBD86</t>
+          <t>PAY15923326</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -9228,7 +9228,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>PAY982B7E21</t>
+          <t>PAY31A539C5</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -9258,7 +9258,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>PAYD469D8A8</t>
+          <t>PAY63F10960</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -9288,7 +9288,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>PAYD43EBCA8</t>
+          <t>PAYEF0EAAA0</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -9318,7 +9318,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>PAYC3C6F310</t>
+          <t>PAY3AE50DC8</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -9348,7 +9348,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>PAY2A60AEC8</t>
+          <t>PAY2794B31D</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -9378,7 +9378,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>PAY44C2240B</t>
+          <t>PAY8D5FF5AF</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -9408,7 +9408,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>PAY2DF9C7E7</t>
+          <t>PAY322DAB57</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -9438,7 +9438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>PAYA63EE032</t>
+          <t>PAY59C8007C</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -9468,7 +9468,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>PAY47D39BEE</t>
+          <t>PAY906961E1</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -9498,7 +9498,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>PAYF2045FDF</t>
+          <t>PAYBC7A7EB3</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -9528,7 +9528,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>PAYC044DF4D</t>
+          <t>PAY0E8C22F9</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -9558,7 +9558,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>PAY69BBF92B</t>
+          <t>PAY980A9BE4</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -9588,7 +9588,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>PAY38086F9D</t>
+          <t>PAY53B6F7B2</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -9618,7 +9618,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>PAYFB853297</t>
+          <t>PAY6062369F</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -9648,7 +9648,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>PAY4E6B0E20</t>
+          <t>PAY8F78A1E1</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -9678,7 +9678,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>PAY8344D117</t>
+          <t>PAYDA8A40A9</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -9708,7 +9708,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>PAYCAECE9C5</t>
+          <t>PAYE1245297</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -9738,7 +9738,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>PAY384B79CB</t>
+          <t>PAYA830E34C</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -9768,7 +9768,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>PAY9B1D729D</t>
+          <t>PAY526865A7</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -9798,7 +9798,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>PAY60478507</t>
+          <t>PAY18C76C5B</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -9828,7 +9828,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>PAY5A0DB283</t>
+          <t>PAYFA25E0B9</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -9858,7 +9858,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>PAY8D9B20A4</t>
+          <t>PAY4B20B015</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -9888,7 +9888,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>PAY18E4982F</t>
+          <t>PAYD74F5E95</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -9918,7 +9918,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>PAY4F153C53</t>
+          <t>PAY8EFCE3E4</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -9948,7 +9948,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>PAYF33ACECC</t>
+          <t>PAY93C334E5</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -9978,7 +9978,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>PAYD4D11D40</t>
+          <t>PAY5C8D7FFE</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -10008,7 +10008,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>PAY6C8C36F8</t>
+          <t>PAYBC84B5E5</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -10038,7 +10038,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>PAY90042176</t>
+          <t>PAY238A37A4</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -10068,7 +10068,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>PAYAE65F6E5</t>
+          <t>PAY753D3B1F</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -10098,7 +10098,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>PAY8F41B6C3</t>
+          <t>PAY1AB23028</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -10128,7 +10128,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>PAY3D345C00</t>
+          <t>PAYB53B9C70</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -10158,7 +10158,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>PAYC8DF13DC</t>
+          <t>PAY97850A24</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -10188,7 +10188,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>PAYC9EDC080</t>
+          <t>PAY4BF268D0</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -10218,7 +10218,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>PAY0379A0FC</t>
+          <t>PAYA73B0E97</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -10248,7 +10248,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>PAY0AF420B6</t>
+          <t>PAY9898838A</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -10278,7 +10278,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>PAYD4F93E7A</t>
+          <t>PAYAB147055</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -10308,7 +10308,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>PAY9F06CE88</t>
+          <t>PAY28A1B19A</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -10338,7 +10338,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>PAYADF41BE0</t>
+          <t>PAYFABA92B1</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -10368,7 +10368,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>PAYCAB6836F</t>
+          <t>PAY879D1BF5</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -10398,7 +10398,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>PAY061A363B</t>
+          <t>PAY8ADB5E20</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -10428,7 +10428,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>PAY3525B4DC</t>
+          <t>PAY44E811A0</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -10458,7 +10458,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>PAYF0692645</t>
+          <t>PAY6EF784FD</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -10488,7 +10488,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>PAY1D399941</t>
+          <t>PAY09EF3E02</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -10518,7 +10518,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>PAY6F3685F4</t>
+          <t>PAY25AB5579</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -10548,7 +10548,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>PAY83BBC5BB</t>
+          <t>PAY563DF2CE</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -10578,7 +10578,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>PAY663B797C</t>
+          <t>PAY85AFBDF1</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -10608,7 +10608,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>PAY28DD6ED9</t>
+          <t>PAY6A624FF0</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -10638,7 +10638,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>PAY8373F4CE</t>
+          <t>PAYEE44C4BA</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -10668,7 +10668,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>PAYDCDA9C41</t>
+          <t>PAY31C19612</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -10698,7 +10698,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>PAYE62E88AB</t>
+          <t>PAY5364648C</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -10728,7 +10728,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>PAY7B4711BE</t>
+          <t>PAY191F9B94</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -10758,7 +10758,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>PAY1CB4DF83</t>
+          <t>PAY3C47FF71</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -10788,7 +10788,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>PAYCF88B8A5</t>
+          <t>PAY2F2258C9</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -10818,7 +10818,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>PAYBE8DDC53</t>
+          <t>PAYA1CC80BB</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -10848,7 +10848,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>PAY43C74D3A</t>
+          <t>PAYCB5E7228</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -10878,7 +10878,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>PAYE7DACFA2</t>
+          <t>PAY6BAC2E4A</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -10908,7 +10908,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>PAYD89EA27A</t>
+          <t>PAY26F8900C</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -10938,7 +10938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>PAYE249E0AB</t>
+          <t>PAY0A8255EA</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -10968,7 +10968,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>PAYEE9EC36B</t>
+          <t>PAYB4BD7C1B</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -10998,7 +10998,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>PAYE887D25C</t>
+          <t>PAY4A4DC978</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -11028,7 +11028,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>PAY00633933</t>
+          <t>PAYA6840BA1</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -11058,7 +11058,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>PAY7928B621</t>
+          <t>PAY9A03ACB5</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -11088,7 +11088,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>PAYAD0BB2FA</t>
+          <t>PAYF7C87017</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -11118,7 +11118,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>PAYD625F7A0</t>
+          <t>PAY981C5985</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -11148,7 +11148,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>PAY9FAB8DC6</t>
+          <t>PAY62634E7D</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -11178,7 +11178,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>PAYEC468C68</t>
+          <t>PAYB57E3C6F</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -11208,7 +11208,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>PAY9FE381F6</t>
+          <t>PAYC7DA8FE7</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -11238,7 +11238,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>PAY15C8CA2B</t>
+          <t>PAY424C53A1</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -11268,7 +11268,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>PAY3C5C8E1C</t>
+          <t>PAYFBDED9D8</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -11298,7 +11298,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>PAY24B3A75C</t>
+          <t>PAYC2252E94</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -11328,7 +11328,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>PAY72BA7F73</t>
+          <t>PAYA6881D1E</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -11358,7 +11358,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>PAYF3627DCE</t>
+          <t>PAYA61D4217</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -11388,7 +11388,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>PAYCC8BF2E6</t>
+          <t>PAY4188FDCA</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -11418,7 +11418,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>PAY207684B4</t>
+          <t>PAYD1284A53</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -11448,7 +11448,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>PAY44A5E251</t>
+          <t>PAYAF40AAF6</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -11478,7 +11478,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>PAYE5A3D6DC</t>
+          <t>PAYE8DB2122</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -11508,7 +11508,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>PAY39523174</t>
+          <t>PAY5E56AA70</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -11538,7 +11538,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>PAYF03DF1F1</t>
+          <t>PAY2F2D72E2</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -11568,7 +11568,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>PAY7F558A10</t>
+          <t>PAY891BC671</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -11598,7 +11598,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>PAY19E9BDCE</t>
+          <t>PAY604905AD</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -11628,7 +11628,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>PAYBC992CAA</t>
+          <t>PAY7DFFA931</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -11658,7 +11658,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>PAY920996B9</t>
+          <t>PAYE5E80BEA</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -11688,7 +11688,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>PAY5C03C348</t>
+          <t>PAYA035742D</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -11718,7 +11718,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>PAY3E963B29</t>
+          <t>PAYCCA63A97</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -11748,7 +11748,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>PAYC954CEFA</t>
+          <t>PAY0F9F913E</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -11778,7 +11778,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>PAYFE8E12E2</t>
+          <t>PAYF77BFC3D</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -11808,7 +11808,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>PAY2B8CCA57</t>
+          <t>PAY1BA12561</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -11838,7 +11838,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>PAY0B62B279</t>
+          <t>PAYA21A273F</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -11868,7 +11868,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>PAY7570D7AF</t>
+          <t>PAY2DAC2FD5</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -11898,7 +11898,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>PAYCE6A928C</t>
+          <t>PAY112B28F4</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -11928,7 +11928,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>PAY33AB40BB</t>
+          <t>PAY4023A2CA</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -11958,7 +11958,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>PAYAC5F044F</t>
+          <t>PAY55C85DEF</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -11988,7 +11988,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>PAYF22B2616</t>
+          <t>PAY5F07155B</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -12018,7 +12018,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>PAY0C15A586</t>
+          <t>PAY3FFB8B30</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -12048,7 +12048,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>PAY90D3CD94</t>
+          <t>PAY194F3A2F</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -12078,7 +12078,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>PAYF16CBD65</t>
+          <t>PAY3D0A2B01</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -12108,7 +12108,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>PAYF5DFCA48</t>
+          <t>PAY217D9A63</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -12138,7 +12138,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>PAY2319D4F4</t>
+          <t>PAY5812F30D</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -12168,7 +12168,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>PAYA4F154A3</t>
+          <t>PAY7A54C24A</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -12198,7 +12198,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>PAY660EECCB</t>
+          <t>PAYC089177A</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -12228,7 +12228,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>PAYE9FD388A</t>
+          <t>PAY7E58445E</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -12258,7 +12258,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>PAY48C17C53</t>
+          <t>PAYB2635D51</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -12288,7 +12288,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>PAY171DB6A5</t>
+          <t>PAY6AC060C6</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -12318,7 +12318,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>PAY2E20D9A6</t>
+          <t>PAY11324923</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -12348,7 +12348,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>PAYBB49D6C2</t>
+          <t>PAY7EB3D9F8</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -12378,7 +12378,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>PAY38564461</t>
+          <t>PAYA6B42B4B</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -12408,7 +12408,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>PAY8D5B283F</t>
+          <t>PAY259784C9</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -12438,7 +12438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>PAY443CB697</t>
+          <t>PAYCAE43906</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -12468,7 +12468,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>PAYE8636E18</t>
+          <t>PAY0C5E7177</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -12498,7 +12498,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>PAYBA14621E</t>
+          <t>PAYEF6F74A2</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -12528,7 +12528,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>PAYA657DDCB</t>
+          <t>PAY345CE79B</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -12558,7 +12558,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>PAY25F9B7D0</t>
+          <t>PAY56325639</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -12588,7 +12588,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>PAY35EF23DE</t>
+          <t>PAYE701F47C</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -12618,7 +12618,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>PAY6CEA24AD</t>
+          <t>PAYBDC32C20</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -12648,7 +12648,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>PAY4D3A5020</t>
+          <t>PAY21D8882B</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -12678,7 +12678,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>PAYDF736734</t>
+          <t>PAYCB6C9C38</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -12708,7 +12708,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>PAYF4B4CC18</t>
+          <t>PAY3E2D9BCA</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -12738,7 +12738,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>PAY9DC959F2</t>
+          <t>PAY31AB27CF</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -12768,7 +12768,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>PAYCCE51FA9</t>
+          <t>PAYCA98FB27</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -12798,7 +12798,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>PAY39E06697</t>
+          <t>PAY2C766539</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -12828,7 +12828,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>PAY390B4AD5</t>
+          <t>PAY91180446</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -12858,7 +12858,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>PAYEF4E5A4B</t>
+          <t>PAYD48E4AD4</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -12888,7 +12888,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>PAY47D33553</t>
+          <t>PAYE731A849</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -12918,7 +12918,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>PAY30D5057C</t>
+          <t>PAY8794B867</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -12948,7 +12948,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>PAY3C9B32CF</t>
+          <t>PAY6D0317FD</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -12978,7 +12978,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>PAYFD604462</t>
+          <t>PAYA6B69F9D</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -13008,7 +13008,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>PAYDEAF6B6C</t>
+          <t>PAY3214822F</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -13038,7 +13038,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>PAY704801BB</t>
+          <t>PAYBA949F5C</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -13068,7 +13068,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>PAY84BFFB60</t>
+          <t>PAY76BEE84B</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -13098,7 +13098,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>PAY7A3CF40F</t>
+          <t>PAYB0D802F0</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -13128,7 +13128,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>PAY618BAFB4</t>
+          <t>PAYFFBB83C4</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -13158,7 +13158,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>PAYF0541285</t>
+          <t>PAY5DE9C4E1</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -13188,7 +13188,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>PAY01732015</t>
+          <t>PAY77E3BD52</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -13218,7 +13218,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>PAYB8B13919</t>
+          <t>PAY6C233289</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -13248,7 +13248,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>PAY11D33171</t>
+          <t>PAYD7343F6D</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -13278,7 +13278,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>PAY8FC148F0</t>
+          <t>PAY71883CCA</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -13308,7 +13308,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>PAY6818FE07</t>
+          <t>PAY02C71E79</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -13338,7 +13338,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>PAY6F561FE0</t>
+          <t>PAY1DE94E77</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -13368,7 +13368,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>PAY52943CBD</t>
+          <t>PAY6A8AA51C</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -13398,7 +13398,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>PAY6898928A</t>
+          <t>PAYCD286434</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -13428,7 +13428,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>PAYE9C1CD31</t>
+          <t>PAY63B0A77E</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -13458,7 +13458,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>PAY9D8C56E8</t>
+          <t>PAYB823DD23</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -13488,7 +13488,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>PAYBCA24906</t>
+          <t>PAY8C19E5E2</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -13518,7 +13518,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>PAY6B708130</t>
+          <t>PAYCCCF8172</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -13548,7 +13548,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>PAY7E71EDE4</t>
+          <t>PAY8AB0731B</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -13578,7 +13578,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>PAYEC515FFE</t>
+          <t>PAY2F13D20A</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -13608,7 +13608,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>PAYA3136DA0</t>
+          <t>PAY82950469</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -13638,7 +13638,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>PAYA48A663A</t>
+          <t>PAY280BC052</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -13668,7 +13668,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>PAYE9D145AE</t>
+          <t>PAYC0634CE4</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -13698,7 +13698,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>PAY84B9DCE8</t>
+          <t>PAY3B2317AC</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -13728,7 +13728,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>PAY0C25961C</t>
+          <t>PAY0F3DA786</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -13758,7 +13758,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>PAYFAA23260</t>
+          <t>PAY9ECD1EC5</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -13788,7 +13788,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>PAY77283DAE</t>
+          <t>PAY3D208CA2</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -13818,7 +13818,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>PAYE1121A60</t>
+          <t>PAYC2C60572</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -13848,7 +13848,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>PAY56A6D668</t>
+          <t>PAYC75C623D</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -13878,7 +13878,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>PAYE42B4F71</t>
+          <t>PAY8EFAA1F2</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -13908,7 +13908,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>PAY42DBBC59</t>
+          <t>PAYB7D162A6</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -13938,7 +13938,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>PAY52253438</t>
+          <t>PAYB1920ABB</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -13968,7 +13968,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>PAY52B10E2E</t>
+          <t>PAY876BDD7A</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -13998,7 +13998,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>PAY521C5A77</t>
+          <t>PAY0F82F605</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -14028,7 +14028,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>PAYCEB30231</t>
+          <t>PAYD815ADA9</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -14058,7 +14058,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>PAYCFF295D8</t>
+          <t>PAYCB7F162D</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -14088,7 +14088,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>PAY68A4EBA2</t>
+          <t>PAY61842528</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -14118,7 +14118,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>PAY06870DC7</t>
+          <t>PAY6F5B5987</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -14148,7 +14148,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>PAY39520154</t>
+          <t>PAY77714833</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -14178,7 +14178,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>PAYB583C06A</t>
+          <t>PAYF8ABFCE0</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -14208,7 +14208,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>PAY76FBF228</t>
+          <t>PAYC39725DC</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -14238,7 +14238,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>PAY62F04605</t>
+          <t>PAY3FD80A9F</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -14268,7 +14268,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>PAYAA370BDA</t>
+          <t>PAY8C54E490</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -14298,7 +14298,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>PAYCB225183</t>
+          <t>PAYAFE9B612</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -14328,7 +14328,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>PAYAEAB1654</t>
+          <t>PAY395F7656</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -14358,7 +14358,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>PAY206D802A</t>
+          <t>PAY32707304</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -14388,7 +14388,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>PAY729630F7</t>
+          <t>PAYFC0E2891</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -14418,7 +14418,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>PAYD24E300D</t>
+          <t>PAY4F885397</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -14448,7 +14448,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>PAY03D56CE4</t>
+          <t>PAY2049EADE</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -14478,7 +14478,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>PAY9C3417D9</t>
+          <t>PAYE46610E4</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -14508,7 +14508,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>PAY70F2A8EF</t>
+          <t>PAY1A709E55</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -14538,7 +14538,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>PAY09082D15</t>
+          <t>PAYA14F24EA</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -14568,7 +14568,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>PAY0F5FB9D8</t>
+          <t>PAY1D96F91C</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -14598,7 +14598,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>PAYB16AC4A1</t>
+          <t>PAY800A119E</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -14628,7 +14628,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>PAYDA9F203E</t>
+          <t>PAYD1640D0F</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -14658,7 +14658,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>PAY198D4869</t>
+          <t>PAY4DAC1733</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -14688,7 +14688,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>PAY2B9DF1EF</t>
+          <t>PAYFB38A771</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -14718,7 +14718,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>PAYCC5026F1</t>
+          <t>PAY6FDE1C5A</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -14748,7 +14748,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>PAY35298C8E</t>
+          <t>PAY4808353A</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -14778,7 +14778,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>PAYF693A5A8</t>
+          <t>PAY87A592FF</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -14808,7 +14808,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>PAY635A8B41</t>
+          <t>PAY7A02DED8</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -14838,7 +14838,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>PAY5B9E6FE9</t>
+          <t>PAY5D653CF9</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -14868,7 +14868,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>PAYAEBEC324</t>
+          <t>PAYC2CDD9C2</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -14898,7 +14898,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>PAYDB0C98DA</t>
+          <t>PAYB7653FE3</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -14928,7 +14928,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>PAY5009B161</t>
+          <t>PAY50DED40D</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -14958,7 +14958,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>PAY761F09A8</t>
+          <t>PAYD90082F7</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -14988,7 +14988,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>PAYADF62497</t>
+          <t>PAYB3706E98</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -15018,7 +15018,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>PAY3C6BF01A</t>
+          <t>PAY25F72069</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -15048,7 +15048,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>PAY8614CD1F</t>
+          <t>PAY861979AB</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -15078,7 +15078,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>PAYCC051F93</t>
+          <t>PAYEAF5E282</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -15108,7 +15108,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>PAYE310ED21</t>
+          <t>PAY6F55A867</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -15138,7 +15138,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>PAYB677D7DE</t>
+          <t>PAYE7C1508D</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">

--- a/backend/data/synthetic/tax_payments.xlsx
+++ b/backend/data/synthetic/tax_payments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F491"/>
+  <dimension ref="A1:G500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>mode</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>invoice_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -494,6 +499,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -524,6 +530,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -554,6 +561,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -584,6 +592,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -614,6 +623,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -644,6 +654,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -674,6 +685,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -704,6 +716,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -734,6 +747,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -764,6 +778,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -794,6 +809,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -824,6 +840,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -854,6 +871,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -884,6 +902,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -914,6 +933,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -944,6 +964,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -974,6 +995,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1004,6 +1026,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1034,6 +1057,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1064,6 +1088,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1094,6 +1119,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1124,6 +1150,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1154,6 +1181,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1184,6 +1212,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1214,6 +1243,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1244,6 +1274,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1274,6 +1305,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1304,6 +1336,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1334,6 +1367,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1364,6 +1398,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1394,6 +1429,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1424,6 +1460,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1454,6 +1491,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1484,6 +1522,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1514,6 +1553,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1544,6 +1584,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1574,6 +1615,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1604,6 +1646,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1634,6 +1677,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1664,6 +1708,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1694,6 +1739,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1724,6 +1770,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1754,6 +1801,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1784,6 +1832,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1814,6 +1863,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1844,6 +1894,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1874,6 +1925,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1904,6 +1956,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1934,6 +1987,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1964,6 +2018,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1994,6 +2049,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2024,6 +2080,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2054,6 +2111,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2084,6 +2142,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2114,6 +2173,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2144,6 +2204,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2174,6 +2235,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2204,6 +2266,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2234,6 +2297,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2264,6 +2328,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2294,6 +2359,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2324,6 +2390,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2354,6 +2421,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2384,6 +2452,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2414,6 +2483,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2444,6 +2514,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2474,6 +2545,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2504,6 +2576,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2534,6 +2607,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2564,6 +2638,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2594,6 +2669,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2624,6 +2700,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2654,6 +2731,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2684,6 +2762,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2714,6 +2793,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2744,6 +2824,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2774,6 +2855,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2804,6 +2886,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2834,6 +2917,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2864,6 +2948,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2894,6 +2979,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2924,6 +3010,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2954,6 +3041,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2984,6 +3072,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3014,6 +3103,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3044,6 +3134,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3074,6 +3165,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3104,6 +3196,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3134,6 +3227,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3164,6 +3258,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3194,6 +3289,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3224,6 +3320,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3254,6 +3351,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3284,6 +3382,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3314,6 +3413,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3344,6 +3444,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3374,6 +3475,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3404,6 +3506,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3434,6 +3537,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3464,6 +3568,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3494,6 +3599,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3524,6 +3630,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3554,6 +3661,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3584,6 +3692,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3614,6 +3723,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3644,6 +3754,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3674,6 +3785,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3704,6 +3816,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3734,6 +3847,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3764,6 +3878,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3794,6 +3909,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3824,6 +3940,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3854,6 +3971,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3884,6 +4002,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3914,6 +4033,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3944,6 +4064,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3974,6 +4095,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4004,6 +4126,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4034,6 +4157,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4064,6 +4188,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4094,6 +4219,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4124,6 +4250,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4154,6 +4281,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4184,6 +4312,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4214,6 +4343,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4244,6 +4374,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4274,6 +4405,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4304,6 +4436,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4334,6 +4467,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4364,6 +4498,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4394,6 +4529,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4424,6 +4560,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4454,6 +4591,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4484,6 +4622,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4514,6 +4653,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4544,6 +4684,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4574,6 +4715,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4604,6 +4746,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4634,6 +4777,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4664,6 +4808,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4694,6 +4839,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4724,6 +4870,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4754,6 +4901,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4784,6 +4932,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4814,6 +4963,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4844,6 +4994,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4874,6 +5025,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4904,6 +5056,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4934,6 +5087,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4964,6 +5118,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4994,6 +5149,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5024,6 +5180,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5054,6 +5211,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5084,6 +5242,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5114,6 +5273,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5144,6 +5304,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5174,6 +5335,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5204,6 +5366,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5234,6 +5397,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5264,6 +5428,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5294,6 +5459,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5324,6 +5490,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5354,6 +5521,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5384,6 +5552,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5414,6 +5583,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5444,6 +5614,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5474,6 +5645,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5504,6 +5676,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5534,6 +5707,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5564,6 +5738,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5594,6 +5769,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5624,6 +5800,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5654,6 +5831,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5684,6 +5862,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5714,6 +5893,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5744,6 +5924,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5774,6 +5955,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5804,6 +5986,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5834,6 +6017,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5864,6 +6048,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5894,6 +6079,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5924,6 +6110,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5954,6 +6141,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5984,6 +6172,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6014,6 +6203,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6044,6 +6234,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6074,6 +6265,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6104,6 +6296,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6134,6 +6327,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6164,6 +6358,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6194,6 +6389,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6224,6 +6420,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6254,6 +6451,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6284,6 +6482,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6314,6 +6513,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6344,6 +6544,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6374,6 +6575,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6404,6 +6606,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6434,6 +6637,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6464,6 +6668,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6494,6 +6699,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6524,6 +6730,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6554,6 +6761,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6584,6 +6792,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6614,6 +6823,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6644,6 +6854,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6674,6 +6885,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6704,6 +6916,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6734,6 +6947,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6764,6 +6978,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6794,6 +7009,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6824,6 +7040,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6854,6 +7071,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6884,6 +7102,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6914,6 +7133,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6944,6 +7164,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6974,6 +7195,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7004,6 +7226,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7034,6 +7257,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7064,6 +7288,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -7094,6 +7319,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7124,6 +7350,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7154,6 +7381,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -7184,6 +7412,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -7214,6 +7443,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7244,6 +7474,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7274,6 +7505,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7304,6 +7536,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -7334,6 +7567,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7364,6 +7598,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7394,6 +7629,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7424,6 +7660,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -7454,6 +7691,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -7484,6 +7722,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7514,6 +7753,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -7544,6 +7784,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7574,6 +7815,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7604,6 +7846,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7634,6 +7877,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7664,6 +7908,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7694,6 +7939,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7724,6 +7970,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7754,6 +8001,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7784,6 +8032,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7814,6 +8063,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7844,6 +8094,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7874,6 +8125,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7904,6 +8156,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7934,6 +8187,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7964,6 +8218,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7994,6 +8249,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -8024,6 +8280,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -8054,6 +8311,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -8084,6 +8342,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -8114,6 +8373,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -8144,6 +8404,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -8174,6 +8435,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -8204,6 +8466,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -8234,6 +8497,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -8264,6 +8528,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -8294,6 +8559,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -8324,6 +8590,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -8354,6 +8621,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -8384,6 +8652,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -8414,6 +8683,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -8444,6 +8714,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -8474,6 +8745,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -8504,6 +8776,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -8534,6 +8807,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -8564,6 +8838,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -8594,6 +8869,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -8624,6 +8900,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -8654,6 +8931,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8684,6 +8962,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8714,6 +8993,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -8744,6 +9024,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -8774,6 +9055,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -8804,6 +9086,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -8834,6 +9117,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8864,6 +9148,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8894,6 +9179,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8924,6 +9210,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8954,6 +9241,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8984,6 +9272,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -9014,6 +9303,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -9044,6 +9334,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -9074,6 +9365,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -9104,6 +9396,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -9134,6 +9427,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -9164,6 +9458,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -9194,6 +9489,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -9224,6 +9520,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -9254,6 +9551,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -9284,6 +9582,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -9314,6 +9613,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -9344,6 +9644,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -9374,6 +9675,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -9404,6 +9706,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -9434,6 +9737,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -9464,6 +9768,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -9494,6 +9799,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -9524,6 +9830,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -9554,6 +9861,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -9584,6 +9892,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -9614,6 +9923,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -9644,6 +9954,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -9674,6 +9985,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -9704,6 +10016,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -9734,6 +10047,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -9764,6 +10078,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -9794,6 +10109,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -9824,6 +10140,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -9854,6 +10171,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -9884,6 +10202,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -9914,6 +10233,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -9944,6 +10264,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9974,6 +10295,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -10004,6 +10326,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -10034,6 +10357,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -10064,6 +10388,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -10094,6 +10419,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -10124,6 +10450,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -10154,6 +10481,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -10184,6 +10512,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -10214,6 +10543,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -10244,6 +10574,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -10274,6 +10605,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -10304,6 +10636,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -10334,6 +10667,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -10364,6 +10698,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -10394,6 +10729,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -10424,6 +10760,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -10454,6 +10791,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -10484,6 +10822,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -10514,6 +10853,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -10544,6 +10884,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -10574,6 +10915,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -10604,6 +10946,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -10634,6 +10977,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -10664,6 +11008,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -10694,6 +11039,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -10724,6 +11070,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -10754,6 +11101,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -10784,6 +11132,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -10814,6 +11163,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -10844,6 +11194,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -10874,6 +11225,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -10904,6 +11256,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -10934,6 +11287,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -10964,6 +11318,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -10994,6 +11349,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -11024,6 +11380,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -11054,6 +11411,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -11084,6 +11442,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -11114,6 +11473,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -11144,6 +11504,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -11174,6 +11535,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -11204,6 +11566,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -11234,6 +11597,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -11264,6 +11628,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -11294,6 +11659,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -11324,6 +11690,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -11354,6 +11721,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -11384,6 +11752,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -11414,6 +11783,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -11444,6 +11814,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -11474,6 +11845,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -11504,6 +11876,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -11534,6 +11907,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -11564,6 +11938,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -11594,6 +11969,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -11624,6 +12000,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -11654,6 +12031,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -11684,6 +12062,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -11714,6 +12093,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -11744,6 +12124,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -11774,6 +12155,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -11804,6 +12186,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -11834,6 +12217,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -11864,6 +12248,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -11894,6 +12279,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -11924,6 +12310,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -11954,6 +12341,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -11984,6 +12372,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -12014,6 +12403,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -12044,6 +12434,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -12074,6 +12465,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -12104,6 +12496,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -12134,6 +12527,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -12164,6 +12558,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -12194,6 +12589,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -12224,6 +12620,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -12254,6 +12651,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -12284,6 +12682,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -12314,6 +12713,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -12344,6 +12744,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -12374,6 +12775,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -12404,6 +12806,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -12434,6 +12837,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -12464,6 +12868,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -12494,6 +12899,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -12524,6 +12930,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -12554,6 +12961,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -12584,6 +12992,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -12614,6 +13023,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -12644,6 +13054,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -12674,6 +13085,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -12704,6 +13116,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -12734,6 +13147,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -12764,6 +13178,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -12794,6 +13209,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -12824,6 +13240,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -12854,6 +13271,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -12884,6 +13302,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -12914,6 +13333,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -12944,6 +13364,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -12974,6 +13395,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -13004,6 +13426,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -13034,6 +13457,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -13064,6 +13488,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -13094,6 +13519,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -13124,6 +13550,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -13154,6 +13581,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -13184,6 +13612,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -13214,6 +13643,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -13244,6 +13674,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -13274,6 +13705,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -13304,6 +13736,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -13334,6 +13767,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -13364,6 +13798,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -13394,6 +13829,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -13424,6 +13860,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -13454,6 +13891,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -13484,6 +13922,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -13514,6 +13953,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -13544,6 +13984,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -13574,6 +14015,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -13604,6 +14046,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -13634,6 +14077,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -13664,6 +14108,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -13694,6 +14139,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -13724,6 +14170,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -13754,6 +14201,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -13784,6 +14232,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -13814,6 +14263,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -13844,6 +14294,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -13874,6 +14325,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -13904,6 +14356,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -13934,6 +14387,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -13964,6 +14418,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -13994,6 +14449,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -14024,6 +14480,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -14054,6 +14511,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -14084,6 +14542,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -14114,6 +14573,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -14144,6 +14604,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -14174,6 +14635,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -14204,6 +14666,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -14234,6 +14697,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -14264,6 +14728,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -14294,6 +14759,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -14324,6 +14790,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -14354,6 +14821,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -14384,6 +14852,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -14414,6 +14883,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -14444,6 +14914,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -14474,6 +14945,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -14504,6 +14976,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -14534,6 +15007,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -14564,6 +15038,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -14594,6 +15069,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -14624,6 +15100,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -14654,6 +15131,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -14684,6 +15162,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -14714,6 +15193,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -14744,6 +15224,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -14774,6 +15255,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -14804,6 +15286,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -14834,6 +15317,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -14864,6 +15348,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -14894,6 +15379,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -14924,6 +15410,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -14954,6 +15441,7 @@
           <t>NEFT</t>
         </is>
       </c>
+      <c r="G484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -14984,6 +15472,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -15014,6 +15503,7 @@
           <t>RTGS</t>
         </is>
       </c>
+      <c r="G486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -15044,6 +15534,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -15074,6 +15565,7 @@
           <t>IMPS</t>
         </is>
       </c>
+      <c r="G488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -15104,6 +15596,7 @@
           <t>NetBanking</t>
         </is>
       </c>
+      <c r="G489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -15134,6 +15627,7 @@
           <t>Challan</t>
         </is>
       </c>
+      <c r="G490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -15162,6 +15656,322 @@
       <c r="F491" t="inlineStr">
         <is>
           <t>Challan</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>DELAY-PAY-001</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>08FIPFF0629W2ZW</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="E492" t="n">
+        <v>55000</v>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>NEFT</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>INV11AF3837</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>DELAY-PAY-002</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>08FIPFF0629W2ZW</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="E493" t="n">
+        <v>42000</v>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>NEFT</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>INV4A553EDB</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>DELAY-PAY-003</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>08FIPFF0629W2ZW</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="E494" t="n">
+        <v>38000</v>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>NEFT</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>INVB4E920BE</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>DELAY-PAY-004</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>04WHQPD7575A6ZV</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>2025-07-27</t>
+        </is>
+      </c>
+      <c r="E495" t="n">
+        <v>61000</v>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>IMPS</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>INV890B321E</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>DELAY-PAY-005</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>04WHQPD7575A6ZV</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="E496" t="n">
+        <v>72000</v>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>IMPS</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>INVDF1B080B</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>DELAY-PAY-006</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>04WHQPD7575A6ZV</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+      <c r="E497" t="n">
+        <v>49500</v>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>IMPS</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>INV5C7A8307</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>DELAY-PAY-007</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>01CFRHP4547I8ZH</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="E498" t="n">
+        <v>88000</v>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>NetBanking</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>INV9F03D5DE</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>DELAY-PAY-008</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>01CFRHP4547I8ZH</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="E499" t="n">
+        <v>95000</v>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>NetBanking</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>INVAC4D2AA4</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>DELAY-PAY-009</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>01CFRHP4547I8ZH</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="E500" t="n">
+        <v>33000</v>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>NetBanking</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>INVDA9972CC</t>
         </is>
       </c>
     </row>
